--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43077,6 +43077,43 @@
         <v>50400</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43114,6 +43114,41 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>313000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43149,6 +43149,43 @@
         <v>313000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43186,6 +43186,41 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>202000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43221,6 +43221,41 @@
         <v>202000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43256,6 +43256,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>122000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43291,6 +43291,43 @@
         <v>122000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43328,6 +43328,41 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>13000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43363,6 +43363,41 @@
         <v>13000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43398,6 +43398,43 @@
         <v>40000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43435,6 +43435,41 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43470,6 +43470,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>122000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43505,6 +43505,76 @@
         <v>122000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1282000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43575,6 +43575,76 @@
         <v>1282000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>391500</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>528000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43645,6 +43645,43 @@
         <v>528000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43682,6 +43682,41 @@
         </is>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>8900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43717,6 +43717,41 @@
         <v>8900</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>522600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43752,6 +43752,41 @@
         <v>522600</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>6512200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43787,6 +43787,76 @@
         <v>6512200</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>401000</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>958100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43857,6 +43857,41 @@
         <v>958100</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1057000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43892,6 +43892,41 @@
         <v>1057000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>1242000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2406"/>
+  <dimension ref="A1:I2407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84702,6 +84702,41 @@
         <v>1242000</v>
       </c>
     </row>
+    <row r="2407">
+      <c r="A2407" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2407" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2407" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D2407" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E2407" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2407" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2407" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2407" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2407" t="n">
+        <v>362200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2407"/>
+  <dimension ref="A1:I2408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84737,6 +84737,41 @@
         <v>362200</v>
       </c>
     </row>
+    <row r="2408">
+      <c r="A2408" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2408" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2408" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D2408" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E2408" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2408" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2408" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2408" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2408" t="n">
+        <v>3415200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2408"/>
+  <dimension ref="A1:I2409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84772,6 +84772,41 @@
         <v>3415200</v>
       </c>
     </row>
+    <row r="2409">
+      <c r="A2409" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2409" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2409" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D2409" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E2409" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2409" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2409" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2409" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2409" t="n">
+        <v>2422000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2409"/>
+  <dimension ref="A1:I2410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84807,6 +84807,41 @@
         <v>2422000</v>
       </c>
     </row>
+    <row r="2410">
+      <c r="A2410" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2410" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2410" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D2410" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E2410" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2410" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2410" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2410" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2410" t="n">
+        <v>283000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2410"/>
+  <dimension ref="A1:I2411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84842,6 +84842,41 @@
         <v>283000</v>
       </c>
     </row>
+    <row r="2411">
+      <c r="A2411" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2411" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2411" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D2411" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E2411" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2411" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2411" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2411" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2411" t="n">
+        <v>29100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2411"/>
+  <dimension ref="A1:I2412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84877,6 +84877,41 @@
         <v>29100</v>
       </c>
     </row>
+    <row r="2412">
+      <c r="A2412" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2412" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2412" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D2412" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E2412" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2412" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2412" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2412" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I2412" t="n">
+        <v>300000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2412"/>
+  <dimension ref="A1:I2413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84912,6 +84912,41 @@
         <v>300000</v>
       </c>
     </row>
+    <row r="2413">
+      <c r="A2413" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2413" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2413" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D2413" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E2413" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2413" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2413" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2413" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2413" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2413"/>
+  <dimension ref="A1:I2414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84947,6 +84947,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="2414">
+      <c r="A2414" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2414" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2414" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D2414" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E2414" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2414" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2414" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2414" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2414" t="n">
+        <v>1406900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2414"/>
+  <dimension ref="A1:I2415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84982,6 +84982,41 @@
         <v>1406900</v>
       </c>
     </row>
+    <row r="2415">
+      <c r="A2415" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2415" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2415" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D2415" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E2415" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2415" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2415" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2415" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2415" t="n">
+        <v>64000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2415"/>
+  <dimension ref="A1:I2416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85017,6 +85017,41 @@
         <v>64000</v>
       </c>
     </row>
+    <row r="2416">
+      <c r="A2416" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2416" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2416" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D2416" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E2416" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2416" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2416" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2416" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2416" t="n">
+        <v>788000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2416"/>
+  <dimension ref="A1:I2417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85052,6 +85052,41 @@
         <v>788000</v>
       </c>
     </row>
+    <row r="2417">
+      <c r="A2417" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2417" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2417" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D2417" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E2417" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2417" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2417" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2417" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2417" t="n">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2417"/>
+  <dimension ref="A1:I2418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85087,6 +85087,41 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="2418">
+      <c r="A2418" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2418" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2418" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D2418" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E2418" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2418" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2418" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2418" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2418" t="n">
+        <v>260100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2418"/>
+  <dimension ref="A1:I2419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85122,6 +85122,41 @@
         <v>260100</v>
       </c>
     </row>
+    <row r="2419">
+      <c r="A2419" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2419" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2419" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D2419" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E2419" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2419" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2419" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2419" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2419" t="n">
+        <v>150000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2419"/>
+  <dimension ref="A1:I2420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85157,6 +85157,41 @@
         <v>150000</v>
       </c>
     </row>
+    <row r="2420">
+      <c r="A2420" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2420" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2420" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D2420" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E2420" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2420" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G2420" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2420" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2420" t="n">
+        <v>245000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0070.xlsx
+++ b/data/0070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2420"/>
+  <dimension ref="A1:I2421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85192,6 +85192,41 @@
         <v>245000</v>
       </c>
     </row>
+    <row r="2421">
+      <c r="A2421" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2421" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2421" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="D2421" t="inlineStr">
+        <is>
+          <t>MQTECH</t>
+        </is>
+      </c>
+      <c r="E2421" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2421" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2421" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2421" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2421" t="n">
+        <v>54000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
